--- a/Data/Images.xlsx
+++ b/Data/Images.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saireddy/Desktop/GT_Final_Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A246001B-E1CC-2F43-8248-7B1C3B01E549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456BB750-A705-B14A-8E73-B68610B886B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32540" yWindow="2440" windowWidth="33600" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Images" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="354">
   <si>
     <t>Alabama</t>
   </si>
@@ -394,9 +394,6 @@
     </r>
   </si>
   <si>
-    <t>Chris Murphy</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -424,9 +421,6 @@
     <t>Delaware</t>
   </si>
   <si>
-    <t>Tom Carper</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -652,9 +646,6 @@
     <t>Idaho</t>
   </si>
   <si>
-    <t>Mike Crapo</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -679,15 +670,9 @@
     </r>
   </si>
   <si>
-    <t>Jim Risch</t>
-  </si>
-  <si>
     <t>Illinois</t>
   </si>
   <si>
-    <t>Dick Durbin</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -799,9 +784,6 @@
     <t>Iowa</t>
   </si>
   <si>
-    <t>Chuck Grassley</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -988,9 +970,6 @@
     <t>Maryland</t>
   </si>
   <si>
-    <t>Ben Cardin</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -1048,9 +1027,6 @@
     </r>
   </si>
   <si>
-    <t>Ed Markey</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -1276,9 +1252,6 @@
     </r>
   </si>
   <si>
-    <t>Josh Hawley</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -1366,9 +1339,6 @@
     </r>
   </si>
   <si>
-    <t>Ben Sasse</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -1456,9 +1426,6 @@
     </r>
   </si>
   <si>
-    <t>Maggie Hassan</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -1486,9 +1453,6 @@
     <t>New Jersey</t>
   </si>
   <si>
-    <t>Bob Menendez</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -1576,9 +1540,6 @@
     <t>New York</t>
   </si>
   <si>
-    <t>Chuck Schumer</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -1750,9 +1711,6 @@
     </r>
   </si>
   <si>
-    <t>Rob Portman</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -1780,9 +1738,6 @@
     <t>Oklahoma</t>
   </si>
   <si>
-    <t>Jim Inhofe</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -1870,9 +1825,6 @@
     <t>Pennsylvania</t>
   </si>
   <si>
-    <t>Bob Casey Jr.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -1897,9 +1849,6 @@
     </r>
   </si>
   <si>
-    <t>Pat Toomey</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -1927,9 +1876,6 @@
     <t>Rhode Island</t>
   </si>
   <si>
-    <t>Jack Reed</t>
-  </si>
-  <si>
     <t>Sheldon Whitehouse</t>
   </si>
   <si>
@@ -2224,18 +2170,12 @@
     <t>Patrick Leahy</t>
   </si>
   <si>
-    <t>Bernie Sanders</t>
-  </si>
-  <si>
     <t>Virginia</t>
   </si>
   <si>
     <t>Mark Warner</t>
   </si>
   <si>
-    <t>Tim Kaine</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -2323,9 +2263,6 @@
     </r>
   </si>
   <si>
-    <t>Shelley Moore Capito</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -2410,9 +2347,6 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Mike Enzi</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -2717,13 +2651,91 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8f/Maria_Cantwell_%28cropped%29.jpg/482px-Maria_Cantwell_%28cropped%29.jpg</t>
+  </si>
+  <si>
+    <t>Christopher Murphy</t>
+  </si>
+  <si>
+    <t>Thomas Carper</t>
+  </si>
+  <si>
+    <t>Michael Crapo</t>
+  </si>
+  <si>
+    <t>James Risch</t>
+  </si>
+  <si>
+    <t>Richard Durbin</t>
+  </si>
+  <si>
+    <t>Charles Grassley</t>
+  </si>
+  <si>
+    <t>Benjamin Cardin</t>
+  </si>
+  <si>
+    <t>Edward Markey</t>
+  </si>
+  <si>
+    <t>Joshua Hawley</t>
+  </si>
+  <si>
+    <t>Benjamin Sasse</t>
+  </si>
+  <si>
+    <t>Margaret Hassan</t>
+  </si>
+  <si>
+    <t>Robert Menendez</t>
+  </si>
+  <si>
+    <t>Charles Schumer</t>
+  </si>
+  <si>
+    <t>Robert Portman</t>
+  </si>
+  <si>
+    <t>James Inhofe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Casey </t>
+  </si>
+  <si>
+    <t>Patrick Toomey</t>
+  </si>
+  <si>
+    <t>John Reed</t>
+  </si>
+  <si>
+    <t>Bernard Sanders</t>
+  </si>
+  <si>
+    <t>Timothy Kaine</t>
+  </si>
+  <si>
+    <t>Shelley Capito</t>
+  </si>
+  <si>
+    <t>Michael Enzi</t>
+  </si>
+  <si>
+    <t>url_temp</t>
+  </si>
+  <si>
+    <t>url_temp_final</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>State_Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -2770,6 +2782,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2785,57 +2803,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2883,6 +2856,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -2892,7 +2919,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2908,28 +2935,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -4093,11 +4129,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4109,1608 +4143,1622 @@
     <col min="6" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="7" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+      <c r="B16" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="7" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="7" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="7" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="7" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="7" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="7" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="7" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="7" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="B24" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="25" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="B26" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="9" t="s">
+    <row r="27" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="C27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="C30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="C31" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="6" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="B32" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="C32" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="7" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="6" t="s">
+    </row>
+    <row r="34" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="C34" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D35" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="7" t="s">
+    </row>
+    <row r="36" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="C36" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D33" s="12" t="s">
+      <c r="C37" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="C40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D36" s="12" t="s">
+      <c r="C43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="D37" s="12" t="s">
+      <c r="C51" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="C55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="5" t="s">
+    </row>
+    <row r="96" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B96" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C96" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D96" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="5" t="s">
+    <row r="97" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B97" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="D97" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D88" s="7" t="s">
+    </row>
+    <row r="98" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="8" t="s">
+      <c r="B98" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="C98" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B90" s="9" t="s">
+      <c r="D98" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="8" t="s">
+    </row>
+    <row r="99" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="C99" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B92" s="6" t="s">
+      <c r="D99" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C92" s="7" t="s">
+    </row>
+    <row r="100" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="B100" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="5" t="s">
+      <c r="D100" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B93" s="6" t="s">
+    </row>
+    <row r="101" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C101" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D101" s="4" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C5" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C8" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C9" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D9" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C11" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D11" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C12" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D12" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C13" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D13" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C14" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D14" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C15" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C17" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D17" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C18" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D18" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C19" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D19" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C20" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D20" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C21" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D21" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C22" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D22" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C23" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D23" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C24" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D24" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C25" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D25" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C26" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D26" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C27" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D27" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C28" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D28" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C29" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D29" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C30" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D30" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C31" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D31" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C32" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D32" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C33" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D33" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C34" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D34" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C35" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D35" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C36" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D36" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C37" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D37" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C38" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D38" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C39" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D39" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C40" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D40" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C41" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D41" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C42" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D42" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C43" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D43" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C44" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D44" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C45" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D45" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C46" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D46" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C47" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D47" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C48" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D48" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C49" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D49" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C50" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D50" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C51" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D51" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C52" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D52" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C53" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D53" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C54" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D54" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C55" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D55" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C56" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="D56" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C57" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D57" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C58" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D58" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C59" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D59" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C60" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="D60" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="C61" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D61" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="C62" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D62" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="C63" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D63" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="C64" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D64" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="C65" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D65" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="C66" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D66" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="C67" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D67" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="C68" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D68" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="C69" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D69" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="C70" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D70" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C71" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D71" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="C72" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D72" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="C73" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D73" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="C74" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D74" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="C75" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D75" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="C76" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D76" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="C77" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D77" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="C78" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D78" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="C79" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D79" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="C80" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D80" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="C81" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D81" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="C82" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="D82" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="C83" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="D83" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="C84" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="D84" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="C85" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D85" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="C86" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D86" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="C87" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D87" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="C88" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="D88" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="C89" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D89" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="C90" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="D90" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="C91" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D91" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="C92" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D92" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="C93" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="D93" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="C94" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D94" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="C95" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D95" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="C96" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="D96" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="C97" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D97" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="C98" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D98" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="C99" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D99" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="C100" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="D100" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C43" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C44" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C47" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C50" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D50" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C51" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D51" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C52" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D52" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C53" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D53" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C54" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D54" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C55" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D56" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C57" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C58" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D58" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C59" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D59" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C60" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C61" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D61" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C62" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D62" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C63" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D63" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C64" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="C65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D66" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C67" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D68" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C69" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D69" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C70" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D70" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C71" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D71" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C72" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D72" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C73" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D73" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C74" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D74" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D75" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C76" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D76" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C77" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D77" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="C78" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D78" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C79" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D79" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C80" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D80" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C81" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D81" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C82" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D82" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C83" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D83" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C84" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D84" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C85" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D85" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="C86" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D86" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C87" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D87" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C88" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D88" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C89" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D89" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C90" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D90" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C91" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D91" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C92" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D92" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C93" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D93" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C94" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D94" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C95" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D95" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C96" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D96" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C97" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D97" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C98" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D98" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C99" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D99" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C100" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D100" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C101" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="D101" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
